--- a/data/published/2020_Colloff_Flowe_Winsor_etal/testInput.xlsx
+++ b/data/published/2020_Colloff_Flowe_Winsor_etal/testInput.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lauramickes/Google Drive/Current/18Modelling Programming/pyWitness/data/published/2019_Colloff_Flowe_Winsor_etal/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lauramickes/Google Drive/Current/18Modelling Programming/pyWitness/data/published/2020_Colloff_Flowe_Winsor_etal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D8CF6F3-C73E-A841-BFE2-A9D70B91FCE0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53B15D97-0CE8-D543-B267-15469AFD2402}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11540" yWindow="1280" windowWidth="38960" windowHeight="22380" xr2:uid="{9ED41D21-AD87-EA4A-9860-FFB390C24F36}"/>
   </bookViews>
@@ -579,7 +579,7 @@
   <dimension ref="A1:S43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1011,58 +1011,58 @@
         <v>30</v>
       </c>
       <c r="B8" s="3">
-        <v>2000</v>
+        <v>20</v>
       </c>
       <c r="C8" s="3">
-        <v>2000</v>
+        <v>20</v>
       </c>
       <c r="D8" s="3">
-        <v>2000</v>
+        <v>20</v>
       </c>
       <c r="E8" s="3">
-        <v>2000</v>
+        <v>20</v>
       </c>
       <c r="F8" s="3">
-        <v>2000</v>
+        <v>20</v>
       </c>
       <c r="G8" s="3">
-        <v>2000</v>
+        <v>20</v>
       </c>
       <c r="H8" s="3">
-        <v>2000</v>
+        <v>20</v>
       </c>
       <c r="I8" s="3">
-        <v>2000</v>
+        <v>20</v>
       </c>
       <c r="J8" s="3">
-        <v>2000</v>
+        <v>20</v>
       </c>
       <c r="K8" s="3">
-        <v>2000</v>
+        <v>20</v>
       </c>
       <c r="L8" s="3">
-        <v>2000</v>
+        <v>20</v>
       </c>
       <c r="M8" s="3">
-        <v>2000</v>
+        <v>20</v>
       </c>
       <c r="N8" s="3">
-        <v>2000</v>
+        <v>20</v>
       </c>
       <c r="O8" s="3">
-        <v>2000</v>
+        <v>20</v>
       </c>
       <c r="P8" s="3">
-        <v>2000</v>
+        <v>20</v>
       </c>
       <c r="Q8" s="3">
-        <v>2000</v>
+        <v>20</v>
       </c>
       <c r="R8" s="3">
-        <v>2000</v>
+        <v>20</v>
       </c>
       <c r="S8" s="3">
-        <v>2000</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">

--- a/data/published/2020_Colloff_Flowe_Winsor_etal/testInput.xlsx
+++ b/data/published/2020_Colloff_Flowe_Winsor_etal/testInput.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lauramickes/Google Drive/Current/18Modelling Programming/pyWitness/data/published/2020_Colloff_Flowe_Winsor_etal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53B15D97-0CE8-D543-B267-15469AFD2402}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD56B67E-CE82-0245-BA32-619D9840AA26}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11540" yWindow="1280" windowWidth="38960" windowHeight="22380" xr2:uid="{9ED41D21-AD87-EA4A-9860-FFB390C24F36}"/>
   </bookViews>
@@ -579,7 +579,7 @@
   <dimension ref="A1:S43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1011,58 +1011,58 @@
         <v>30</v>
       </c>
       <c r="B8" s="3">
-        <v>20</v>
+        <v>2000</v>
       </c>
       <c r="C8" s="3">
-        <v>20</v>
+        <v>2000</v>
       </c>
       <c r="D8" s="3">
-        <v>20</v>
+        <v>2000</v>
       </c>
       <c r="E8" s="3">
-        <v>20</v>
+        <v>2000</v>
       </c>
       <c r="F8" s="3">
-        <v>20</v>
+        <v>2000</v>
       </c>
       <c r="G8" s="3">
-        <v>20</v>
+        <v>2000</v>
       </c>
       <c r="H8" s="3">
-        <v>20</v>
+        <v>2000</v>
       </c>
       <c r="I8" s="3">
-        <v>20</v>
+        <v>2000</v>
       </c>
       <c r="J8" s="3">
-        <v>20</v>
+        <v>2000</v>
       </c>
       <c r="K8" s="3">
-        <v>20</v>
+        <v>2000</v>
       </c>
       <c r="L8" s="3">
-        <v>20</v>
+        <v>2000</v>
       </c>
       <c r="M8" s="3">
-        <v>20</v>
+        <v>2000</v>
       </c>
       <c r="N8" s="3">
-        <v>20</v>
+        <v>2000</v>
       </c>
       <c r="O8" s="3">
-        <v>20</v>
+        <v>2000</v>
       </c>
       <c r="P8" s="3">
-        <v>20</v>
+        <v>2000</v>
       </c>
       <c r="Q8" s="3">
-        <v>20</v>
+        <v>2000</v>
       </c>
       <c r="R8" s="3">
-        <v>20</v>
+        <v>2000</v>
       </c>
       <c r="S8" s="3">
-        <v>20</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
